--- a/Inputs/Pacific_Cross_Lifecare/info.xlsx
+++ b/Inputs/Pacific_Cross_Lifecare/info.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">provider</t>
   </si>
@@ -40,9 +40,6 @@
     <t xml:space="preserve">frequencies</t>
   </si>
   <si>
-    <t xml:space="preserve">ageCalculationMethod</t>
-  </si>
-  <si>
     <t xml:space="preserve">insurerName</t>
   </si>
   <si>
@@ -67,13 +64,28 @@
     <t xml:space="preserve">Annually/</t>
   </si>
   <si>
-    <t xml:space="preserve">standard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pacific Cross (Lifecare 360)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pre-existing Condition Cover/Diagnostics &amp; Test/Surgeries &amp; Anesthesia/Oncology/Organ Transplant/Out-patient ConsultationsOut-patient SpecialistsOut-patient Medicines/Scans &amp; Diagnostic Tests/Physiotherapy/Maternity (Consultations, Scans and Delivery)/Complications of Pregnancy/Dental/Optical Benefits/Mental Health Benefit/Emergency Evacuation</t>
+    <t xml:space="preserve">Pacific_Cross_Lifecare</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Chronic Condition Cover/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Diagnostics &amp; Test/Surgeries &amp; Anesthesia/Oncology/Organ Transplant/Out-patient ConsultationsOut-patient SpecialistsOut-patient Medicines/Scans &amp; Diagnostic Tests/Physiotherapy/Maternity (Consultations, Scans and Delivery)/Complications of Pregnancy/Dental/Optical Benefits/Mental Health Benefit/Emergency Evacuation</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">IP/OP</t>
@@ -88,7 +100,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -115,6 +127,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -272,18 +290,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="46.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="22.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="46.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -305,49 +323,43 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/Pacific_Cross_Lifecare/info.xlsx
+++ b/Inputs/Pacific_Cross_Lifecare/info.xlsx
@@ -73,6 +73,7 @@
         <color rgb="FF222222"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Chronic Condition Cover/</t>
     </r>
@@ -84,7 +85,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Diagnostics &amp; Test/Surgeries &amp; Anesthesia/Oncology/Organ Transplant/Out-patient ConsultationsOut-patient SpecialistsOut-patient Medicines/Scans &amp; Diagnostic Tests/Physiotherapy/Maternity (Consultations, Scans and Delivery)/Complications of Pregnancy/Dental/Optical Benefits/Mental Health Benefit/Emergency Evacuation</t>
+      <t xml:space="preserve">Diagnostics &amp; Test/Surgeries &amp; Anesthesia/Oncology/Organ Transplant/Out-patient Consultations/Out-patient Specialists/Out-patient Medicines/Scans &amp; Diagnostic Tests/Physiotherapy/Maternity (Consultations, Scans and Delivery)/Complications of Pregnancy/Dental/Optical Benefits/Mental Health Benefit/Emergency Evacuation/Annual Limit</t>
     </r>
   </si>
   <si>
@@ -133,6 +134,7 @@
       <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -292,15 +294,15 @@
   </sheetPr>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="22.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="46.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="78.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -333,7 +335,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>9</v>
       </c>

--- a/Inputs/Pacific_Cross_Lifecare/info.xlsx
+++ b/Inputs/Pacific_Cross_Lifecare/info.xlsx
@@ -73,6 +73,7 @@
         <color rgb="FF222222"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Chronic Condition Cover/</t>
     </r>
@@ -84,7 +85,16 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Diagnostics &amp; Test/Surgeries &amp; Anesthesia/Oncology/Organ Transplant/Out-patient ConsultationsOut-patient SpecialistsOut-patient Medicines/Scans &amp; Diagnostic Tests/Physiotherapy/Maternity (Consultations, Scans and Delivery)/Complications of Pregnancy/Dental/Optical Benefits/Mental Health Benefit/Emergency Evacuation</t>
+      <t xml:space="preserve">Diagnostics &amp; Test/Surgeries &amp; Anesthesia/Oncology/Organ Transplant/Out-patient ConsultationsOut-patient SpecialistsOut-patient Medicines/Scans &amp; Diagnostic Tests/Physiotherapy/Maternity (Consultations, Scans and Delivery)/Complications of Pregnancy/Dental/Optical Benefits/Mental Health Benefit/Emergency Evacuation/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Annual Limit</t>
     </r>
   </si>
   <si>
@@ -100,7 +110,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -133,6 +143,7 @@
       <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -140,6 +151,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -293,10 +310,10 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="22.36"/>
@@ -333,7 +350,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>9</v>
       </c>
